--- a/data/predictions/race/aff_act_hrt_wht/leveled/republican.xlsx
+++ b/data/predictions/race/aff_act_hrt_wht/leveled/republican.xlsx
@@ -706,7 +706,7 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.5132882468144205</v>
+        <v>0.5062221633232096</v>
       </c>
       <c r="D34">
         <v>0.1516421292496542</v>
@@ -720,7 +720,7 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.5344034078806963</v>
+        <v>0.5011852844979501</v>
       </c>
       <c r="D35">
         <v>0.1040478655036942</v>
@@ -734,7 +734,7 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.5271154302005759</v>
+        <v>0.5633631042658165</v>
       </c>
       <c r="D36">
         <v>0.1197588172781217</v>
@@ -748,7 +748,7 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.5176040645539949</v>
+        <v>0.5375365514080276</v>
       </c>
       <c r="D37">
         <v>0.1236562017545876</v>
@@ -762,7 +762,7 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.5204538067885314</v>
+        <v>0.5009487466556242</v>
       </c>
       <c r="D38">
         <v>0.09046041113428763</v>
@@ -776,7 +776,7 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.5255549068970305</v>
+        <v>0.5252105562778073</v>
       </c>
       <c r="D39">
         <v>0.09068337850536023</v>
